--- a/biology/Zoologie/Hogna_inexorabilis/Hogna_inexorabilis.xlsx
+++ b/biology/Zoologie/Hogna_inexorabilis/Hogna_inexorabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hogna inexorabilis est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hogna inexorabilis est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Sainte-Hélène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Sainte-Hélène.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des mâles mesure 5,00 mm de long sur 3,12 mm et la carapace des femelles mesure de 4,70 à 6,80 mm de long sur de 3,60 à 5,30 mm[2].
-Le mâle décrit par Sherwood, Henrard, Logunov et Fowler en 2023 mesure 8,6 mm et la femelle 12,9 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des mâles mesure 5,00 mm de long sur 3,12 mm et la carapace des femelles mesure de 4,70 à 6,80 mm de long sur de 3,60 à 5,30 mm.
+Le mâle décrit par Sherwood, Henrard, Logunov et Fowler en 2023 mesure 8,6 mm et la femelle 12,9 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Lycosa inexorabilis par O. Pickard-Cambridge en 1870. Elle est placée dans le genre Lynxosa par Roewer en 1955[4] puis dans le genre Hogna par Wunderlich en 1992[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Lycosa inexorabilis par O. Pickard-Cambridge en 1870. Elle est placée dans le genre Lynxosa par Roewer en 1955 puis dans le genre Hogna par Wunderlich en 1992.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1870 : « Notes on some spiders and scorpions from St Helena, with descriptions of new species. » Proceedings of the Zoological Society of London, vol. 1869, p. 531-544 (texte intégral).</t>
         </is>
